--- a/translations/census_individual_translate_welsh.xlsx
+++ b/translations/census_individual_translate_welsh.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/dev/ONSdigital/eq-survey-runner-clean/translations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="24840" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="729">
   <si>
     <t>Context</t>
   </si>
@@ -1702,9 +1715,6 @@
     <t>Sut fyddech chi’n disgrifio’ch hunaniaeth genedlaethol?</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol.  Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol.  Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;p&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cymro/Cymraes </t>
   </si>
   <si>
@@ -1723,9 +1733,6 @@
     <t xml:space="preserve">Disgrifiwch eich hunaniaeth genedlaethol </t>
   </si>
   <si>
-    <t>&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol. Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol. Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;p&gt;</t>
-  </si>
-  <si>
     <t>Disgrifiwch eich hunaniaeth genedlaethol</t>
   </si>
   <si>
@@ -1753,9 +1760,6 @@
     <t xml:space="preserve">Ar 9 Ebrill 2017, beth, yn gyfreithiol, yw’ch statws priodasol neu statws eich partneriaeth sifil o’r un rhyw? </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Atebwch yn ôl eich statws ar 9 Ebrill 2017.&lt;p&gt;&lt;p&gt;Atebwch y cwestiwn hwn ar gyfer plant, er nad ydynt efallai yn ddigon hen i briodi nac i ffurfio partneriaeth sifil o'r un rhyw.&lt;p&gt;&lt;p&gt;Os oeddech yn briod (neu wedi ffurfio partneriaeth gofrestredig o'r un rhyw) dramor, a bod hyn yn eich galluogi i gael eich cydnabod yn briod neu mewn partneriaeth sifil yn y Deyrnas Unedig, atebwch y cwestiwn gan adlewyrchu'r bartneriaeth gyfreithiol honno.&lt;p&gt; </t>
-  </si>
-  <si>
     <t>Erioed wedi priodi na chofrestru partneriaeth sifil o’r un rhyw</t>
   </si>
   <si>
@@ -1798,9 +1802,6 @@
     <t>Ddim yn gweithio i sefydliad na busnes</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Os nad ydych yn gweithio atebwch y cwestiynau sy'n weddill am eich prif swydd ddiwethaf.&lt;p&gt;&lt;p&gt;Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi &lt;p&gt; </t>
-  </si>
-  <si>
     <t xml:space="preserve">yn weithiwr cyflogedig? </t>
   </si>
   <si>
@@ -1885,9 +1886,6 @@
     <t>Beth ydych (oeddech) chi’n ei wneud yn eich prif swydd.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Rhowch ddisgrifiad byr o beth ydych (oeddech) chi'n ei wneud yn eich prif swydd.  Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi.&lt;p&gt;&lt;p&gt;Rhowch y wybodaeth orau bosibl hyd yn oed os nad ydych yn siŵr o'r holl fanylion neu'n methu â'u cofio.&lt;p&gt; </t>
-  </si>
-  <si>
     <t>Disgrifiad</t>
   </si>
   <si>
@@ -2026,9 +2024,6 @@
     <t xml:space="preserve">Os ydych (oeddech) yn was sifil, ysgrifennwch &lt;b&gt;llywodraeth&lt;/b&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yn eich gweithle, beth yw (oedd) prif weithgarwch eich cyflogwr neu’ch busnes? </t>
   </si>
   <si>
@@ -2195,19 +2190,49 @@
   </si>
   <si>
     <t xml:space="preserve">Nodwch y math o gyfeiriad </t>
+  </si>
+  <si>
+    <t>If you are (were) a local government officer, write &lt;b&gt;local government&lt;/b&gt; and give the name of the department within the local authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;/p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol.  Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;/p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;/p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol.  Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Gallwch ddewis mwy nag un hunaniaeth genedlaethol.&lt;/p&gt;&lt;p&gt;Chi sy'n penderfynu sut i ddewis eich hunaniaeth genedlaethol neu hunaniaethau cenedlaethol. Er enghraifft, gallai ymwneud â'r wlad neu'r gwledydd rydych yn teimlo eich bod yn perthyn iddi neu iddynt, neu'n ei hystyried neu'n eu hystyried yn gartref.&lt;/p&gt;&lt;p&gt;Nid yw'n ddibynnol ar eich grŵp ethnig na'ch cenedligrwydd cyfreithiol (dinasyddiaeth).&lt;/p&gt;&lt;p&gt;Dewiswch bob un sy'n berthnasol. Os nad yw eich hunaniaeth genedlaethol ar y rhestr, dewiswch 'Arall' a nodwch eich hunaniaeth genedlaethol.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Atebwch yn ôl eich statws ar 9 Ebrill 2017.&lt;/p&gt;&lt;p&gt;Atebwch y cwestiwn hwn ar gyfer plant, er nad ydynt efallai yn ddigon hen i briodi nac i ffurfio partneriaeth sifil o'r un rhyw.&lt;/p&gt;&lt;p&gt;Os oeddech yn briod (neu wedi ffurfio partneriaeth gofrestredig o'r un rhyw) dramor, a bod hyn yn eich galluogi i gael eich cydnabod yn briod neu mewn partneriaeth sifil yn y Deyrnas Unedig, atebwch y cwestiwn gan adlewyrchu'r bartneriaeth gyfreithiol honno.&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Os nad ydych yn gweithio atebwch y cwestiynau sy'n weddill am eich prif swydd ddiwethaf.&lt;/p&gt;&lt;p&gt;Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi &lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Rhowch ddisgrifiad byr o beth ydych (oeddech) chi'n ei wneud yn eich prif swydd.  Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi.&lt;/p&gt;&lt;p&gt;Rhowch y wybodaeth orau bosibl hyd yn oed os nad ydych yn siŵr o'r holl fanylion neu'n methu â'u cofio.&lt;/p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2230,9 +2255,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2295,12 +2326,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2327,14 +2358,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2361,6 +2393,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2536,20 +2569,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C438"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="150">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2571,7 +2605,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5">
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2616,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="180">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2593,7 +2627,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2638,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2615,7 +2649,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2660,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2637,16 +2671,16 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="150">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2691,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="409.5">
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2668,7 +2702,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="180">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2679,7 +2713,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2690,7 +2724,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="60">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2735,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="90">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2712,7 +2746,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2723,10 +2757,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="165">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2737,7 +2771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="165">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2748,7 +2782,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="240">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +2793,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2770,7 +2804,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2781,7 +2815,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="135">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2792,7 +2826,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2803,10 +2837,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="165">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2817,7 +2851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2828,7 +2862,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="135">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2839,7 +2873,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2850,7 +2884,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2861,7 +2895,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2872,7 +2906,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2883,7 +2917,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2894,10 +2928,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="165">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2908,7 +2942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2919,7 +2953,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2930,7 +2964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2941,10 +2975,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="165">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2955,7 +2989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2966,7 +3000,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="180">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2977,7 +3011,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="409.5">
+    <row r="44" spans="1:3" ht="270" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2988,7 +3022,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2999,7 +3033,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="60">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -3010,7 +3044,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3021,7 +3055,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3032,7 +3066,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3043,10 +3077,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="165">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3057,7 +3091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3068,7 +3102,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -3079,7 +3113,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +3124,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="75">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3101,7 +3135,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3112,7 +3146,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3123,7 +3157,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="60">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -3134,7 +3168,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3145,7 +3179,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -3156,7 +3190,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3167,7 +3201,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3178,7 +3212,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3189,7 +3223,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="75">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3200,7 +3234,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3211,10 +3245,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="165">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -3225,7 +3259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="75">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -3236,7 +3270,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3247,7 +3281,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3258,7 +3292,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="195">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3269,7 +3303,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3280,7 +3314,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3291,7 +3325,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3302,7 +3336,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -3313,7 +3347,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3324,7 +3358,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="75">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3335,7 +3369,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3346,10 +3380,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="150">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3360,10 +3394,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="105">
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -3374,7 +3408,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3385,7 +3419,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="270">
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3396,7 +3430,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="285">
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -3407,7 +3441,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="150">
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -3418,7 +3452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="285">
+    <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3429,7 +3463,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="225">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3440,7 +3474,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="409.5">
+    <row r="89" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3451,7 +3485,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="255">
+    <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3462,7 +3496,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="240">
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3473,7 +3507,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="90">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -3484,7 +3518,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="135">
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -3495,7 +3529,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="195">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -3506,7 +3540,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="255">
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -3517,7 +3551,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="150">
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -3528,7 +3562,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="165">
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>89</v>
       </c>
@@ -3539,7 +3573,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -3550,7 +3584,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="75">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -3561,7 +3595,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>89</v>
       </c>
@@ -3572,7 +3606,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="60">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>89</v>
       </c>
@@ -3583,7 +3617,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="150">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>89</v>
       </c>
@@ -3594,7 +3628,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="165">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>89</v>
       </c>
@@ -3605,7 +3639,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>89</v>
       </c>
@@ -3616,16 +3650,16 @@
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" ht="285">
+    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3636,7 +3670,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="225">
+    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3647,7 +3681,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="315">
+    <row r="109" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3658,7 +3692,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="180">
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3669,7 +3703,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="180">
+    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -3680,7 +3714,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="105">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3691,7 +3725,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="105">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3702,7 +3736,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="195">
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -3713,7 +3747,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="255">
+    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -3724,7 +3758,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="180">
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>108</v>
       </c>
@@ -3735,7 +3769,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="165">
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -3746,7 +3780,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -3757,7 +3791,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="75">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -3768,7 +3802,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>108</v>
       </c>
@@ -3779,7 +3813,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="60">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -3790,7 +3824,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="150">
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>108</v>
       </c>
@@ -3801,7 +3835,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="135">
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>108</v>
       </c>
@@ -3812,7 +3846,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>108</v>
       </c>
@@ -3823,10 +3857,10 @@
         <v>518</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" ht="165">
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -3837,7 +3871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="195">
+    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -3848,7 +3882,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="105">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>116</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="240">
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>119</v>
       </c>
@@ -3870,7 +3904,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -3881,7 +3915,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="165">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3892,7 +3926,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="60">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -3903,7 +3937,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="75">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -3914,7 +3948,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -3925,10 +3959,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" ht="165">
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>127</v>
       </c>
@@ -3939,7 +3973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="75">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -3950,7 +3984,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="75">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -3961,7 +3995,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -3972,7 +4006,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>130</v>
       </c>
@@ -3983,7 +4017,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -3994,7 +4028,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -4005,10 +4039,10 @@
         <v>542</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" ht="165">
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>134</v>
       </c>
@@ -4019,7 +4053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="90">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -4030,7 +4064,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>137</v>
       </c>
@@ -4041,16 +4075,16 @@
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>139</v>
       </c>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" ht="150">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>140</v>
       </c>
@@ -4061,7 +4095,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="409.5">
+    <row r="150" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>142</v>
       </c>
@@ -4072,7 +4106,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>143</v>
       </c>
@@ -4083,7 +4117,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="90">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>143</v>
       </c>
@@ -4094,7 +4128,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="60">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>143</v>
       </c>
@@ -4105,10 +4139,10 @@
         <v>548</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3" ht="165">
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -4119,7 +4153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="240">
+    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>148</v>
       </c>
@@ -4130,7 +4164,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>150</v>
       </c>
@@ -4141,7 +4175,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -4152,7 +4186,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>154</v>
       </c>
@@ -4163,7 +4197,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -4174,7 +4208,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -4185,16 +4219,16 @@
         <v>554</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>160</v>
       </c>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" ht="75">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -4205,7 +4239,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="90">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -4216,7 +4250,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="120">
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -4227,7 +4261,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>163</v>
       </c>
@@ -4238,7 +4272,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="75">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -4249,7 +4283,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="105">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>163</v>
       </c>
@@ -4260,7 +4294,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>163</v>
       </c>
@@ -4271,7 +4305,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="135">
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4282,7 +4316,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="409.5">
+    <row r="172" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4290,10 +4324,10 @@
         <v>172</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="75">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4304,7 +4338,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4312,10 +4346,10 @@
         <v>174</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="30">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -4323,10 +4357,10 @@
         <v>175</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="30">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -4334,10 +4368,10 @@
         <v>176</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="105">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -4345,10 +4379,10 @@
         <v>177</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="45">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>173</v>
       </c>
@@ -4356,10 +4390,10 @@
         <v>178</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="45">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>173</v>
       </c>
@@ -4370,7 +4404,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="90">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -4378,19 +4412,19 @@
         <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" ht="135">
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4401,7 +4435,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="409.5">
+    <row r="184" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4409,10 +4443,10 @@
         <v>172</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="75">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4423,7 +4457,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="30">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -4431,10 +4465,10 @@
         <v>175</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="30">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -4442,10 +4476,10 @@
         <v>174</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="30">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>183</v>
       </c>
@@ -4453,10 +4487,10 @@
         <v>176</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="105">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>183</v>
       </c>
@@ -4464,10 +4498,10 @@
         <v>177</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="45">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>183</v>
       </c>
@@ -4475,10 +4509,10 @@
         <v>178</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="45">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>183</v>
       </c>
@@ -4489,7 +4523,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="90">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>183</v>
       </c>
@@ -4497,19 +4531,19 @@
         <v>179</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>184</v>
       </c>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" ht="165">
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>185</v>
       </c>
@@ -4517,10 +4551,10 @@
         <v>186</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="409.5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>187</v>
       </c>
@@ -4531,7 +4565,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="60">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>188</v>
       </c>
@@ -4539,10 +4573,10 @@
         <v>189</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="60">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>188</v>
       </c>
@@ -4550,10 +4584,10 @@
         <v>190</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="30">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>188</v>
       </c>
@@ -4561,10 +4595,10 @@
         <v>191</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="120">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>188</v>
       </c>
@@ -4572,10 +4606,10 @@
         <v>192</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="90">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>188</v>
       </c>
@@ -4583,10 +4617,10 @@
         <v>193</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="30">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>194</v>
       </c>
@@ -4594,13 +4628,13 @@
         <v>195</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" ht="165">
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>196</v>
       </c>
@@ -4611,7 +4645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="225">
+    <row r="205" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>197</v>
       </c>
@@ -4619,10 +4653,10 @@
         <v>198</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="409.5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>199</v>
       </c>
@@ -4630,10 +4664,10 @@
         <v>200</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="135">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>201</v>
       </c>
@@ -4641,10 +4675,10 @@
         <v>202</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>201</v>
       </c>
@@ -4652,10 +4686,10 @@
         <v>203</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="90">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>201</v>
       </c>
@@ -4663,10 +4697,10 @@
         <v>204</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="105">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>201</v>
       </c>
@@ -4674,10 +4708,10 @@
         <v>205</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="165">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>201</v>
       </c>
@@ -4685,10 +4719,10 @@
         <v>206</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="30">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>201</v>
       </c>
@@ -4696,10 +4730,10 @@
         <v>207</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="210">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>201</v>
       </c>
@@ -4707,10 +4741,10 @@
         <v>208</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>201</v>
       </c>
@@ -4718,10 +4752,10 @@
         <v>209</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="120">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>201</v>
       </c>
@@ -4729,19 +4763,19 @@
         <v>210</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>211</v>
       </c>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" ht="90">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>212</v>
       </c>
@@ -4749,10 +4783,10 @@
         <v>213</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="105">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -4760,10 +4794,10 @@
         <v>215</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="120">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>214</v>
       </c>
@@ -4771,10 +4805,10 @@
         <v>216</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="240">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>214</v>
       </c>
@@ -4782,10 +4816,10 @@
         <v>217</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="90">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>214</v>
       </c>
@@ -4793,19 +4827,19 @@
         <v>218</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>219</v>
       </c>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" ht="409.5">
+    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>220</v>
       </c>
@@ -4813,10 +4847,10 @@
         <v>221</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="90">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>222</v>
       </c>
@@ -4824,10 +4858,10 @@
         <v>223</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="60">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -4835,10 +4869,10 @@
         <v>225</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="90">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -4846,10 +4880,10 @@
         <v>226</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="90">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>224</v>
       </c>
@@ -4857,13 +4891,13 @@
         <v>227</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" ht="165">
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -4874,7 +4908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="225">
+    <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -4882,10 +4916,10 @@
         <v>230</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="195">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4893,10 +4927,10 @@
         <v>232</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="30">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4904,10 +4938,10 @@
         <v>234</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="60">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4915,10 +4949,10 @@
         <v>235</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="30">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -4926,13 +4960,13 @@
         <v>236</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" ht="165">
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4943,7 +4977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="90">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4951,10 +4985,10 @@
         <v>239</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4962,10 +4996,10 @@
         <v>151</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4976,7 +5010,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="45">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4984,10 +5018,10 @@
         <v>155</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="30">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4998,7 +5032,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -5006,10 +5040,10 @@
         <v>159</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -5017,10 +5051,10 @@
         <v>246</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="45">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -5028,10 +5062,10 @@
         <v>248</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="45">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -5039,10 +5073,10 @@
         <v>250</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="90">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -5050,10 +5084,10 @@
         <v>251</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="45">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -5064,7 +5098,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="45">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5072,19 +5106,19 @@
         <v>252</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>253</v>
       </c>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" ht="45">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -5092,10 +5126,10 @@
         <v>248</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -5103,10 +5137,10 @@
         <v>175</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="90">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -5114,10 +5148,10 @@
         <v>251</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="45">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5128,7 +5162,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="45">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -5136,19 +5170,19 @@
         <v>252</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>256</v>
       </c>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" ht="210">
+    <row r="260" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>257</v>
       </c>
@@ -5156,10 +5190,10 @@
         <v>258</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -5167,10 +5201,10 @@
         <v>260</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="30">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -5178,19 +5212,19 @@
         <v>25</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>261</v>
       </c>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" ht="345">
+    <row r="265" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>262</v>
       </c>
@@ -5198,10 +5232,10 @@
         <v>263</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="105">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -5209,10 +5243,10 @@
         <v>265</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="405">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5220,10 +5254,10 @@
         <v>267</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="30">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -5231,19 +5265,19 @@
         <v>269</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" ht="195">
+    <row r="271" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -5251,10 +5285,10 @@
         <v>272</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -5262,10 +5296,10 @@
         <v>260</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="30">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -5273,19 +5307,19 @@
         <v>25</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" ht="135">
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5293,10 +5327,10 @@
         <v>276</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="409.5">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -5304,10 +5338,10 @@
         <v>278</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="30">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -5315,19 +5349,19 @@
         <v>280</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>281</v>
       </c>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" ht="240">
+    <row r="281" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -5335,10 +5369,10 @@
         <v>283</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -5346,10 +5380,10 @@
         <v>260</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="30">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -5357,13 +5391,13 @@
         <v>25</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="1:3" ht="165">
+    <row r="285" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -5374,7 +5408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="150">
+    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -5382,10 +5416,10 @@
         <v>287</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="409.5">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="210" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -5393,10 +5427,10 @@
         <v>289</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -5404,10 +5438,10 @@
         <v>260</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -5415,10 +5449,10 @@
         <v>25</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="30">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -5426,10 +5460,10 @@
         <v>292</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="30">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -5437,19 +5471,19 @@
         <v>294</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>295</v>
       </c>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" ht="60">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -5457,10 +5491,10 @@
         <v>297</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="409.5">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -5468,10 +5502,10 @@
         <v>299</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>300</v>
       </c>
@@ -5479,10 +5513,10 @@
         <v>260</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -5493,7 +5527,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="60">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -5501,10 +5535,10 @@
         <v>302</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="409.5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>303</v>
       </c>
@@ -5512,10 +5546,10 @@
         <v>304</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="360">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>305</v>
       </c>
@@ -5523,10 +5557,10 @@
         <v>306</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>305</v>
       </c>
@@ -5534,10 +5568,10 @@
         <v>307</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="270">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -5545,10 +5579,10 @@
         <v>308</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="60">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -5556,10 +5590,10 @@
         <v>309</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="195">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -5567,10 +5601,10 @@
         <v>310</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="60">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -5578,10 +5612,10 @@
         <v>311</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="195">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5589,10 +5623,10 @@
         <v>312</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="105">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -5600,10 +5634,10 @@
         <v>313</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="120">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>305</v>
       </c>
@@ -5611,10 +5645,10 @@
         <v>314</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="45">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>305</v>
       </c>
@@ -5622,19 +5656,19 @@
         <v>315</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>316</v>
       </c>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" ht="60">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>317</v>
       </c>
@@ -5642,10 +5676,10 @@
         <v>302</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="409.5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>318</v>
       </c>
@@ -5653,10 +5687,10 @@
         <v>319</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="330">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -5664,10 +5698,10 @@
         <v>321</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>320</v>
       </c>
@@ -5675,10 +5709,10 @@
         <v>307</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="270">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>320</v>
       </c>
@@ -5686,10 +5720,10 @@
         <v>308</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="60">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>320</v>
       </c>
@@ -5697,10 +5731,10 @@
         <v>309</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="195">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -5708,10 +5742,10 @@
         <v>310</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="60">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
@@ -5719,10 +5753,10 @@
         <v>311</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="195">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5730,10 +5764,10 @@
         <v>312</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="105">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5741,10 +5775,10 @@
         <v>313</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="120">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -5752,10 +5786,10 @@
         <v>314</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="45">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>320</v>
       </c>
@@ -5763,19 +5797,19 @@
         <v>315</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>322</v>
       </c>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" ht="105">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>323</v>
       </c>
@@ -5783,10 +5817,10 @@
         <v>324</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -5794,10 +5828,10 @@
         <v>326</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>325</v>
       </c>
@@ -5805,10 +5839,10 @@
         <v>327</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" ht="30">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>325</v>
       </c>
@@ -5816,10 +5850,10 @@
         <v>328</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="30">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>325</v>
       </c>
@@ -5827,19 +5861,19 @@
         <v>329</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>330</v>
       </c>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" ht="255">
+    <row r="333" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -5847,10 +5881,10 @@
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="75">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5861,7 +5895,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="90">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -5869,10 +5903,10 @@
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="60">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5880,10 +5914,10 @@
         <v>336</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="120">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -5891,10 +5925,10 @@
         <v>337</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="105">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>335</v>
       </c>
@@ -5902,10 +5936,10 @@
         <v>338</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="180">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>335</v>
       </c>
@@ -5913,10 +5947,10 @@
         <v>339</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="330">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>335</v>
       </c>
@@ -5924,10 +5958,10 @@
         <v>340</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="90">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>335</v>
       </c>
@@ -5935,10 +5969,10 @@
         <v>341</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="45">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>335</v>
       </c>
@@ -5946,19 +5980,19 @@
         <v>342</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" ht="195">
+    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5966,10 +6000,10 @@
         <v>345</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="135">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -5977,10 +6011,10 @@
         <v>346</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="330">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>344</v>
       </c>
@@ -5988,10 +6022,10 @@
         <v>347</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="150">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5999,10 +6033,10 @@
         <v>349</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="409.5">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>350</v>
       </c>
@@ -6010,10 +6044,10 @@
         <v>351</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="30">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -6021,13 +6055,13 @@
         <v>280</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" ht="165">
+    <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>353</v>
       </c>
@@ -6038,7 +6072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="120">
+    <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -6046,10 +6080,10 @@
         <v>355</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="345">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -6057,10 +6091,10 @@
         <v>357</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="45">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>358</v>
       </c>
@@ -6068,10 +6102,10 @@
         <v>359</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="45">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -6079,10 +6113,10 @@
         <v>360</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>358</v>
       </c>
@@ -6090,13 +6124,13 @@
         <v>25</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" ht="165">
+    <row r="359" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -6107,7 +6141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="75">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -6115,10 +6149,10 @@
         <v>363</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="60">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>362</v>
       </c>
@@ -6126,10 +6160,10 @@
         <v>364</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="135">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>365</v>
       </c>
@@ -6137,10 +6171,10 @@
         <v>366</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="75">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>367</v>
       </c>
@@ -6148,10 +6182,10 @@
         <v>368</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -6159,10 +6193,10 @@
         <v>370</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>369</v>
       </c>
@@ -6170,10 +6204,10 @@
         <v>371</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -6181,10 +6215,10 @@
         <v>372</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -6192,10 +6226,10 @@
         <v>373</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="60">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>369</v>
       </c>
@@ -6203,10 +6237,10 @@
         <v>374</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" ht="45">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -6217,7 +6251,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="60">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6225,13 +6259,13 @@
         <v>376</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="1:3" ht="165">
+    <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>377</v>
       </c>
@@ -6242,7 +6276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="75">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>378</v>
       </c>
@@ -6250,10 +6284,10 @@
         <v>368</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>379</v>
       </c>
@@ -6261,10 +6295,10 @@
         <v>371</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>379</v>
       </c>
@@ -6272,10 +6306,10 @@
         <v>370</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -6283,10 +6317,10 @@
         <v>372</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="45">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -6294,10 +6328,10 @@
         <v>373</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="60">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>379</v>
       </c>
@@ -6305,10 +6339,10 @@
         <v>374</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="45">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -6319,7 +6353,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="60">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6327,10 +6361,10 @@
         <v>376</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="45">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6338,13 +6372,13 @@
         <v>381</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="1:3" ht="165">
+    <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6355,7 +6389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="195">
+    <row r="384" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6363,10 +6397,10 @@
         <v>384</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="240">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -6374,10 +6408,10 @@
         <v>386</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="300">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6385,10 +6419,10 @@
         <v>387</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -6396,10 +6430,10 @@
         <v>25</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="45">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -6407,10 +6441,10 @@
         <v>389</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="45">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6418,10 +6452,10 @@
         <v>390</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="60">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -6429,19 +6463,19 @@
         <v>391</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:3" ht="195">
+    <row r="393" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -6449,10 +6483,10 @@
         <v>394</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="210">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>395</v>
       </c>
@@ -6460,10 +6494,10 @@
         <v>396</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="409.5">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -6471,10 +6505,10 @@
         <v>398</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="60">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -6482,19 +6516,19 @@
         <v>400</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>401</v>
       </c>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="1:3" ht="225">
+    <row r="399" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -6502,10 +6536,10 @@
         <v>403</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="409.5">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>404</v>
       </c>
@@ -6516,7 +6550,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="30">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>405</v>
       </c>
@@ -6524,10 +6558,10 @@
         <v>406</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="30">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -6535,10 +6569,10 @@
         <v>407</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="135">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>405</v>
       </c>
@@ -6546,10 +6580,10 @@
         <v>408</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="105">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>405</v>
       </c>
@@ -6557,19 +6591,19 @@
         <v>409</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>410</v>
       </c>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="1:3" ht="180">
+    <row r="407" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>411</v>
       </c>
@@ -6577,10 +6611,10 @@
         <v>412</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="409.5">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>413</v>
       </c>
@@ -6591,7 +6625,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>414</v>
       </c>
@@ -6599,10 +6633,10 @@
         <v>415</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="30">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>414</v>
       </c>
@@ -6610,10 +6644,10 @@
         <v>416</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="30">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>414</v>
       </c>
@@ -6621,10 +6655,10 @@
         <v>417</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="30">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>414</v>
       </c>
@@ -6632,10 +6666,10 @@
         <v>418</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="90">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>414</v>
       </c>
@@ -6643,10 +6677,10 @@
         <v>419</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="60">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>414</v>
       </c>
@@ -6654,13 +6688,13 @@
         <v>420</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:3" ht="165">
+    <row r="416" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>421</v>
       </c>
@@ -6671,7 +6705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="135">
+    <row r="417" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>422</v>
       </c>
@@ -6679,10 +6713,10 @@
         <v>423</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="180">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>424</v>
       </c>
@@ -6690,10 +6724,10 @@
         <v>425</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="135">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>426</v>
       </c>
@@ -6701,13 +6735,13 @@
         <v>366</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="1:3" ht="165">
+    <row r="421" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -6718,7 +6752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="165">
+    <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>428</v>
       </c>
@@ -6726,10 +6760,10 @@
         <v>429</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="409.5">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -6737,10 +6771,10 @@
         <v>431</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>432</v>
       </c>
@@ -6748,10 +6782,10 @@
         <v>25</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="75">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>432</v>
       </c>
@@ -6759,10 +6793,10 @@
         <v>433</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="120">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -6770,10 +6804,10 @@
         <v>434</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="45">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>432</v>
       </c>
@@ -6784,10 +6818,10 @@
         <v>538</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="1:3" ht="165">
+    <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>436</v>
       </c>
@@ -6798,7 +6832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="75">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>437</v>
       </c>
@@ -6806,10 +6840,10 @@
         <v>438</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="90">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>439</v>
       </c>
@@ -6817,10 +6851,10 @@
         <v>440</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="90">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>439</v>
       </c>
@@ -6828,10 +6862,10 @@
         <v>441</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="45">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>439</v>
       </c>
@@ -6839,10 +6873,10 @@
         <v>442</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="60">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>439</v>
       </c>
@@ -6850,10 +6884,10 @@
         <v>443</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="90">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>439</v>
       </c>
@@ -6861,10 +6895,10 @@
         <v>444</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="45">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>439</v>
       </c>
@@ -6872,10 +6906,10 @@
         <v>445</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="45">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>439</v>
       </c>
@@ -6886,7 +6920,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="45">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>439</v>
       </c>
@@ -6894,7 +6928,15 @@
         <v>446</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="B440" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/translations/census_individual_translate_welsh.xlsx
+++ b/translations/census_individual_translate_welsh.xlsx
@@ -1991,9 +1991,6 @@
     <t xml:space="preserve">Ddim o gwbl </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; unrhyw waith am dâl, gan gynnwys gwaith achlysurol neu dros dro, hyd yn oed os oedd ond am awr </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yr wythnos diwethaf a oeddech: </t>
   </si>
   <si>
@@ -2030,9 +2027,6 @@
     <t>&lt;p&gt;Nodwch brif weithgarwch eich cyflogwr neu'ch busnes.&lt;/p&gt;&lt;p&gt;Ffordd arall o ddisgrifio'r prif weithgarwch yw'r diwydiant y mae'ch cyflogwr neu'ch busnes yn gweithio ynddo.&lt;/p&gt;&lt;p&gt;Os nad ydych yn siŵr beth yw prif weithgarwch eich cyflogwr neu'ch busnes rhowch y wybodaeth orau bosibl.&lt;/p&gt;&lt;p&gt;Os ydych wedi'ch cyflogi drwy asiantaeth nodwch brif weithgarwch y busnes rydych yn gweithio iddo, nid yr asiantaeth.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;Include&lt;/strong&gt; Problemau sy'n gysylltiedig â henaint </t>
-  </si>
-  <si>
     <t>A oes gennych broblem iechyd neu anabledd sydd wedi para neu sy’n debygol o bara am o leiaf 12 mis, ac sy’n cyfyngu ar eich gallu i wneud gweithgareddau arferol?</t>
   </si>
   <si>
@@ -2214,6 +2208,12 @@
   </si>
   <si>
     <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; unrhyw waith am dâl, gan gynnwys gwaith achlysurol neu dros dro, hyd yn oed os oedd ond am awr</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; Problemau sy'n gysylltiedig â henaint</t>
   </si>
 </sst>
 </file>
@@ -2572,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="B440" sqref="B440"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4324,7 +4324,7 @@
         <v>172</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4443,7 +4443,7 @@
         <v>172</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4664,7 +4664,7 @@
         <v>200</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -5338,7 +5338,7 @@
         <v>278</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>332</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>334</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -5914,7 +5914,7 @@
         <v>336</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
         <v>337</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
         <v>338</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -5947,7 +5947,7 @@
         <v>339</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>340</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -5969,7 +5969,7 @@
         <v>341</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -5980,7 +5980,7 @@
         <v>342</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -6000,7 +6000,7 @@
         <v>345</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6011,7 +6011,7 @@
         <v>346</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6022,7 +6022,7 @@
         <v>347</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
         <v>349</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="150" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
         <v>351</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -6072,7 +6072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>354</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>355</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>667</v>
+        <v>728</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -6091,7 +6091,7 @@
         <v>357</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>359</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
         <v>360</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -6124,7 +6124,7 @@
         <v>25</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -6149,7 +6149,7 @@
         <v>363</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -6160,7 +6160,7 @@
         <v>364</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6171,7 +6171,7 @@
         <v>366</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
         <v>368</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
         <v>370</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -6204,7 +6204,7 @@
         <v>371</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>372</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -6226,7 +6226,7 @@
         <v>373</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
         <v>374</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -6259,7 +6259,7 @@
         <v>376</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
         <v>368</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>371</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -6306,7 +6306,7 @@
         <v>370</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -6317,7 +6317,7 @@
         <v>372</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>373</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
         <v>374</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
         <v>376</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -6372,7 +6372,7 @@
         <v>381</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -6397,7 +6397,7 @@
         <v>384</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6408,7 +6408,7 @@
         <v>386</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -6419,7 +6419,7 @@
         <v>387</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>389</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -6452,7 +6452,7 @@
         <v>390</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>391</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -6483,7 +6483,7 @@
         <v>394</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -6494,7 +6494,7 @@
         <v>396</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="120" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
         <v>398</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>400</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -6536,7 +6536,7 @@
         <v>403</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -6558,7 +6558,7 @@
         <v>406</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>407</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6580,7 +6580,7 @@
         <v>408</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>409</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,7 +6611,7 @@
         <v>412</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
         <v>415</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -6644,7 +6644,7 @@
         <v>416</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>417</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -6666,7 +6666,7 @@
         <v>418</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -6677,7 +6677,7 @@
         <v>419</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -6688,7 +6688,7 @@
         <v>420</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>423</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>425</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>366</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -6760,7 +6760,7 @@
         <v>429</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="105" x14ac:dyDescent="0.2">
@@ -6771,7 +6771,7 @@
         <v>431</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -6793,7 +6793,7 @@
         <v>433</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -6804,7 +6804,7 @@
         <v>434</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -6840,7 +6840,7 @@
         <v>438</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -6851,7 +6851,7 @@
         <v>440</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -6862,7 +6862,7 @@
         <v>441</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -6873,7 +6873,7 @@
         <v>442</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>443</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>444</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -6906,7 +6906,7 @@
         <v>445</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -6928,15 +6928,15 @@
         <v>446</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="B440" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/translations/census_individual_translate_welsh.xlsx
+++ b/translations/census_individual_translate_welsh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="24840" windowHeight="13420"/>
+    <workbookView xWindow="80" yWindow="1500" windowWidth="24840" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="727">
   <si>
     <t>Context</t>
   </si>
@@ -1070,9 +1070,6 @@
     <t>If you are (were) a civil servant, write &lt;b&gt;government&lt;/b&gt;</t>
   </si>
   <si>
-    <t>If you are (were) a local government officer, write local government officer, write &lt;b&gt;local government&lt;/b&gt; and give the name of the department within the local authority</t>
-  </si>
-  <si>
     <t>employers-business-question</t>
   </si>
   <si>
@@ -2205,9 +2202,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Rhowch ddisgrifiad byr o beth ydych (oeddech) chi'n ei wneud yn eich prif swydd.  Eich prif swydd yw’r swydd yr ydych (oeddech) fel arfer yn gweithio’r nifer fwyaf o oriau ynddi.&lt;/p&gt;&lt;p&gt;Rhowch y wybodaeth orau bosibl hyd yn oed os nad ydych yn siŵr o'r holl fanylion neu'n methu â'u cofio.&lt;/p&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os ydych (oeddech) yn swyddog llywodraeth leol, ysgrifennwch swyddog llywodraeth leol, ysgrifennwch &lt;b&gt;llywodraeth leol&lt;/b&gt; a rhowch enw'r adran o fewn yr awdurdod lleol </t>
   </si>
   <si>
     <t>&lt;strong&gt;Dylech gynnwys&lt;/strong&gt; unrhyw waith am dâl, gan gynnwys gwaith achlysurol neu dros dro, hyd yn oed os oedd ond am awr</t>
@@ -2570,16 +2564,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C440"/>
+  <dimension ref="A1:C439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
     <col min="3" max="3" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2594,37 +2588,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2632,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2643,10 +2626,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2654,10 +2637,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2665,52 +2648,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2718,10 +2701,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2729,10 +2712,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2740,10 +2723,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2751,57 +2734,57 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2809,21 +2792,21 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2831,57 +2814,57 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C26" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2889,10 +2872,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2900,10 +2883,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,10 +2894,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,46 +2905,46 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C35" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>469</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2969,68 +2952,68 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C40" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="270" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3038,10 +3021,10 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3049,10 +3032,10 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3060,10 +3043,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3071,46 +3054,46 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C50" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3118,21 +3101,21 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3140,21 +3123,21 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3162,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3173,10 +3156,10 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3184,10 +3167,10 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3195,10 +3178,10 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3206,10 +3189,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3217,10 +3200,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3228,10 +3211,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3239,35 +3222,35 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C66" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>472</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3275,43 +3258,43 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,10 +3302,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,10 +3313,10 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,10 +3324,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3352,10 +3335,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,10 +3346,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,71 +3357,71 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="C79" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>496</v>
-      </c>
+      <c r="C81" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3446,43 +3429,43 @@
         <v>81</v>
       </c>
       <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -3490,65 +3473,65 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3556,21 +3539,21 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3578,10 +3561,10 @@
         <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3589,10 +3572,10 @@
         <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3600,10 +3583,10 @@
         <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3611,32 +3594,32 @@
         <v>89</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3644,52 +3627,52 @@
         <v>89</v>
       </c>
       <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>88</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3697,21 +3680,21 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3719,10 +3702,10 @@
         <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3730,32 +3713,32 @@
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3763,21 +3746,21 @@
         <v>108</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3785,10 +3768,10 @@
         <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3796,10 +3779,10 @@
         <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3807,10 +3790,10 @@
         <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3818,32 +3801,32 @@
         <v>108</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>108</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>108</v>
       </c>
       <c r="B123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3851,35 +3834,35 @@
         <v>108</v>
       </c>
       <c r="B124" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" t="s">
         <v>105</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="C125" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>115</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>116</v>
-      </c>
-      <c r="B127" t="s">
-        <v>117</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -3887,43 +3870,43 @@
         <v>116</v>
       </c>
       <c r="B128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" t="s">
         <v>118</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>119</v>
-      </c>
-      <c r="B129" t="s">
-        <v>120</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" t="s">
-        <v>122</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>121</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3931,10 +3914,10 @@
         <v>121</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3942,10 +3925,10 @@
         <v>121</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3953,35 +3936,35 @@
         <v>121</v>
       </c>
       <c r="B134" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" t="s">
         <v>126</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>127</v>
-      </c>
-      <c r="B136" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C135" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>462</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3989,21 +3972,21 @@
         <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>539</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -4011,10 +3994,10 @@
         <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>450</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -4022,10 +4005,10 @@
         <v>130</v>
       </c>
       <c r="B141" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>541</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4033,88 +4016,88 @@
         <v>130</v>
       </c>
       <c r="B142" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>134</v>
-      </c>
-      <c r="B144" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C143" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>543</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>137</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>138</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>141</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>139</v>
-      </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>140</v>
-      </c>
-      <c r="B149" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>142</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>143</v>
-      </c>
-      <c r="B151" t="s">
-        <v>144</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>546</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4122,10 +4105,10 @@
         <v>143</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4133,132 +4116,132 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
+        <v>145</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>147</v>
-      </c>
-      <c r="B155" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>148</v>
-      </c>
-      <c r="B156" t="s">
-        <v>149</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>150</v>
-      </c>
-      <c r="B157" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B158" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>158</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C162" s="1"/>
+      <c r="C162" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>160</v>
-      </c>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>31</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>462</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>161</v>
       </c>
       <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" t="s">
-        <v>164</v>
-      </c>
       <c r="C166" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4266,10 +4249,10 @@
         <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4277,10 +4260,10 @@
         <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4288,10 +4271,10 @@
         <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4299,43 +4282,43 @@
         <v>163</v>
       </c>
       <c r="B170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>170</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="173" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>172</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173" t="s">
-        <v>31</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>462</v>
+        <v>720</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4343,10 +4326,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4354,10 +4337,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4365,10 +4348,10 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4376,10 +4359,10 @@
         <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4387,10 +4370,10 @@
         <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4398,10 +4381,10 @@
         <v>173</v>
       </c>
       <c r="B179" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>478</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4409,52 +4392,52 @@
         <v>173</v>
       </c>
       <c r="B180" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>173</v>
+      </c>
+      <c r="B181" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>170</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="C184" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>172</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>31</v>
-      </c>
       <c r="C185" s="1" t="s">
-        <v>462</v>
+        <v>721</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4462,10 +4445,10 @@
         <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>563</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,7 +4456,7 @@
         <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>562</v>
@@ -4484,10 +4467,10 @@
         <v>183</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4495,10 +4478,10 @@
         <v>183</v>
       </c>
       <c r="B189" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4506,10 +4489,10 @@
         <v>183</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4517,10 +4500,10 @@
         <v>183</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>478</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4528,52 +4511,52 @@
         <v>183</v>
       </c>
       <c r="B192" t="s">
+        <v>55</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>183</v>
+      </c>
+      <c r="B193" t="s">
         <v>179</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C193" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>184</v>
+      </c>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>185</v>
+      </c>
+      <c r="B196" t="s">
+        <v>186</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>184</v>
-      </c>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>185</v>
-      </c>
-      <c r="B195" t="s">
-        <v>186</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="197" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>187</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>6</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>188</v>
-      </c>
-      <c r="B197" t="s">
-        <v>189</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>570</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,10 +4564,10 @@
         <v>188</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,21 +4575,21 @@
         <v>188</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>188</v>
       </c>
       <c r="B200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,68 +4597,68 @@
         <v>188</v>
       </c>
       <c r="B201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>188</v>
+      </c>
+      <c r="B202" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>194</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>195</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C203" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>196</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" t="s">
+        <v>198</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>196</v>
-      </c>
-      <c r="B204" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>197</v>
-      </c>
-      <c r="B205" t="s">
-        <v>198</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="207" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>199</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>200</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>201</v>
-      </c>
-      <c r="B207" t="s">
-        <v>202</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>577</v>
+        <v>722</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,43 +4666,43 @@
         <v>201</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>201</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,218 +4710,218 @@
         <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>201</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>201</v>
       </c>
       <c r="B214" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>201</v>
       </c>
       <c r="B215" t="s">
+        <v>209</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>201</v>
+      </c>
+      <c r="B216" t="s">
         <v>210</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="1"/>
+      <c r="C216" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>211</v>
-      </c>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>211</v>
+      </c>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>212</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>213</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>214</v>
-      </c>
-      <c r="B219" t="s">
-        <v>215</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>214</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>214</v>
       </c>
       <c r="B221" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>214</v>
       </c>
       <c r="B222" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223" t="s">
         <v>218</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="1"/>
+      <c r="C223" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>220</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>221</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>222</v>
-      </c>
-      <c r="B226" t="s">
-        <v>223</v>
-      </c>
       <c r="C226" s="1" t="s">
-        <v>586</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>224</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>224</v>
       </c>
       <c r="B229" t="s">
+        <v>226</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>224</v>
+      </c>
+      <c r="B230" t="s">
         <v>227</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="C230" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>228</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>19</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>229</v>
-      </c>
-      <c r="B232" t="s">
-        <v>230</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" t="s">
+        <v>230</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>234</v>
-      </c>
       <c r="C234" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4946,10 +4929,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4957,123 +4940,123 @@
         <v>233</v>
       </c>
       <c r="B236" t="s">
+        <v>235</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237" t="s">
         <v>236</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>19</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C237" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>599</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>601</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -5081,10 +5064,10 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -5092,10 +5075,10 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>478</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -5103,41 +5086,41 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
         <v>252</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="1"/>
+      <c r="C251" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>253</v>
-      </c>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>254</v>
-      </c>
-      <c r="B253" t="s">
-        <v>248</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>604</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C253" s="1"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,10 +5128,10 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,10 +5139,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>478</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -5167,41 +5150,41 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
+        <v>55</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>255</v>
+      </c>
+      <c r="B258" t="s">
         <v>252</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C258" s="1"/>
+      <c r="C258" s="1" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
         <v>256</v>
       </c>
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>257</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>258</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>260</v>
-      </c>
       <c r="C261" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -5209,94 +5192,94 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
+        <v>260</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263" t="s">
         <v>25</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C263" s="1"/>
+      <c r="C263" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>261</v>
       </c>
-      <c r="C264" s="1"/>
-    </row>
-    <row r="265" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>262</v>
-      </c>
-      <c r="B265" t="s">
-        <v>263</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>613</v>
-      </c>
+      <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>262</v>
+      </c>
+      <c r="B266" t="s">
+        <v>263</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>264</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>267</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>267</v>
-      </c>
-      <c r="C267" s="1" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>269</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268" t="s">
-        <v>269</v>
-      </c>
-      <c r="C268" s="1" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="1"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>270</v>
-      </c>
-      <c r="C270" s="1"/>
-    </row>
-    <row r="271" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>271</v>
-      </c>
-      <c r="B271" t="s">
-        <v>272</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>273</v>
-      </c>
-      <c r="B272" t="s">
-        <v>260</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -5304,83 +5287,83 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
+        <v>260</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
         <v>25</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C274" s="1"/>
+      <c r="C274" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="1"/>
-    </row>
-    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>276</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C277" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>277</v>
-      </c>
-      <c r="B277" t="s">
-        <v>278</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>279</v>
-      </c>
-      <c r="B278" t="s">
-        <v>280</v>
-      </c>
-      <c r="C278" s="1" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="1"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>281</v>
-      </c>
-      <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>282</v>
-      </c>
-      <c r="B281" t="s">
-        <v>283</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>284</v>
-      </c>
-      <c r="B282" t="s">
-        <v>260</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -5388,57 +5371,57 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
+        <v>260</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="s">
         <v>25</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C284" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>285</v>
-      </c>
-      <c r="B285" t="s">
-        <v>19</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>286</v>
-      </c>
-      <c r="B286" t="s">
-        <v>287</v>
-      </c>
-      <c r="C286" s="1" t="s">
+    <row r="288" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>623</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="210" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>288</v>
-      </c>
-      <c r="B287" t="s">
-        <v>289</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>290</v>
-      </c>
-      <c r="B288" t="s">
-        <v>260</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5446,74 +5429,74 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>293</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>294</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="1"/>
+      <c r="C292" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>295</v>
-      </c>
       <c r="C293" s="1"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>296</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>297</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="C295" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" t="s">
+        <v>299</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>298</v>
-      </c>
-      <c r="B295" t="s">
-        <v>299</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>300</v>
-      </c>
-      <c r="B296" t="s">
-        <v>260</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5521,131 +5504,131 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>458</v>
+        <v>630</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>301</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>302</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C299" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" t="s">
+        <v>304</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="150" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>303</v>
-      </c>
-      <c r="B299" t="s">
-        <v>304</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300" t="s">
-        <v>306</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>305</v>
       </c>
       <c r="B301" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>305</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -5653,140 +5636,140 @@
         <v>305</v>
       </c>
       <c r="B309" t="s">
+        <v>314</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>305</v>
+      </c>
+      <c r="B310" t="s">
         <v>315</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="1"/>
+      <c r="C310" s="1" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>316</v>
-      </c>
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>316</v>
+      </c>
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>317</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="150" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+      <c r="C313" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>318</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>319</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>320</v>
-      </c>
-      <c r="B314" t="s">
-        <v>321</v>
-      </c>
       <c r="C314" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>320</v>
       </c>
       <c r="B315" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>320</v>
       </c>
       <c r="B316" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>320</v>
       </c>
       <c r="B318" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -5794,41 +5777,41 @@
         <v>320</v>
       </c>
       <c r="B323" t="s">
+        <v>314</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>320</v>
+      </c>
+      <c r="B324" t="s">
         <v>315</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C324" s="1"/>
+      <c r="C324" s="1" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>322</v>
-      </c>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>323</v>
-      </c>
-      <c r="B326" t="s">
-        <v>324</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>649</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -5836,10 +5819,10 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -5847,10 +5830,10 @@
         <v>325</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -5858,41 +5841,41 @@
         <v>325</v>
       </c>
       <c r="B330" t="s">
+        <v>328</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>325</v>
+      </c>
+      <c r="B331" t="s">
         <v>329</v>
       </c>
-      <c r="C330" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C331" s="1"/>
+      <c r="C331" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
         <v>330</v>
       </c>
-      <c r="C332" s="1"/>
-    </row>
-    <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>331</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>333</v>
-      </c>
-      <c r="B334" t="s">
-        <v>31</v>
-      </c>
       <c r="C334" s="1" t="s">
-        <v>462</v>
+        <v>725</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -5900,76 +5883,76 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>654</v>
+        <v>461</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B336" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>335</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>335</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>335</v>
       </c>
       <c r="B340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>335</v>
       </c>
       <c r="B341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -5977,330 +5960,330 @@
         <v>335</v>
       </c>
       <c r="B342" t="s">
+        <v>341</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>335</v>
+      </c>
+      <c r="B343" t="s">
         <v>342</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C343" s="1"/>
+      <c r="C343" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
         <v>343</v>
       </c>
-      <c r="C344" s="1"/>
-    </row>
-    <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>344</v>
-      </c>
-      <c r="B345" t="s">
-        <v>345</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>662</v>
-      </c>
+      <c r="C345" s="1"/>
     </row>
     <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>344</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
         <v>348</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C349" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>349</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="150" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>350</v>
-      </c>
-      <c r="B349" t="s">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>351</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>352</v>
-      </c>
-      <c r="B350" t="s">
+      <c r="B351" t="s">
         <v>280</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="1"/>
-    </row>
-    <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>353</v>
-      </c>
-      <c r="B352" t="s">
-        <v>19</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C351" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="1"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>19</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
         <v>354</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C354" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>355</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+      <c r="B355" t="s">
         <v>356</v>
       </c>
-      <c r="B354" t="s">
-        <v>357</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>358</v>
-      </c>
-      <c r="B355" t="s">
-        <v>359</v>
-      </c>
       <c r="C355" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s">
         <v>358</v>
       </c>
-      <c r="B356" t="s">
-        <v>360</v>
-      </c>
       <c r="C356" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B357" t="s">
+        <v>359</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
         <v>25</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C358" s="1"/>
-    </row>
-    <row r="359" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>361</v>
-      </c>
-      <c r="B359" t="s">
-        <v>19</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C358" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C359" s="1"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>670</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
         <v>362</v>
       </c>
-      <c r="B361" t="s">
-        <v>364</v>
-      </c>
       <c r="C361" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B364" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>368</v>
+      </c>
+      <c r="B365" t="s">
         <v>369</v>
       </c>
-      <c r="B365" t="s">
-        <v>371</v>
-      </c>
       <c r="C365" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B366" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>478</v>
+        <v>677</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>679</v>
+        <v>477</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="1"/>
-    </row>
-    <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>377</v>
-      </c>
-      <c r="B372" t="s">
-        <v>19</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A371" t="s">
+        <v>368</v>
+      </c>
+      <c r="B371" t="s">
+        <v>375</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C372" s="1"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B373" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>673</v>
+        <v>19</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B374" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B375" t="s">
         <v>370</v>
@@ -6311,632 +6294,635 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B376" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B377" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>478</v>
+        <v>677</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>680</v>
+        <v>477</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
+        <v>378</v>
+      </c>
+      <c r="B381" t="s">
+        <v>375</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>379</v>
+      </c>
+      <c r="B382" t="s">
         <v>380</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C382" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
         <v>381</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>382</v>
+      </c>
+      <c r="B385" t="s">
+        <v>383</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="1"/>
-    </row>
-    <row r="383" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>382</v>
-      </c>
-      <c r="B383" t="s">
-        <v>19</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
-        <v>383</v>
-      </c>
-      <c r="B384" t="s">
+    <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>384</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="B386" t="s">
+        <v>385</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>385</v>
-      </c>
-      <c r="B385" t="s">
+    <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>384</v>
+      </c>
+      <c r="B387" t="s">
         <v>386</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>683</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
-        <v>385</v>
-      </c>
-      <c r="B386" t="s">
-        <v>387</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>388</v>
-      </c>
-      <c r="B387" t="s">
-        <v>25</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>389</v>
+        <v>25</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>685</v>
+        <v>625</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
         <v>388</v>
       </c>
-      <c r="B389" t="s">
-        <v>390</v>
-      </c>
       <c r="C389" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B390" t="s">
+        <v>389</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>387</v>
+      </c>
+      <c r="B391" t="s">
+        <v>390</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>391</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>393</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="1"/>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
-        <v>392</v>
-      </c>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
-        <v>393</v>
-      </c>
-      <c r="B393" t="s">
+    <row r="395" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>394</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="B395" t="s">
+        <v>395</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
-        <v>395</v>
-      </c>
-      <c r="B394" t="s">
+    <row r="396" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
         <v>396</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="B396" t="s">
+        <v>397</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="120" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>397</v>
-      </c>
-      <c r="B395" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
         <v>398</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="B397" t="s">
+        <v>399</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
-        <v>399</v>
-      </c>
-      <c r="B396" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>400</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" t="s">
+        <v>402</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
-        <v>401</v>
-      </c>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>402</v>
-      </c>
-      <c r="B399" t="s">
+    <row r="401" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>403</v>
       </c>
-      <c r="C399" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>404</v>
-      </c>
-      <c r="B400" t="s">
+      <c r="B401" t="s">
         <v>6</v>
       </c>
-      <c r="C400" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>405</v>
-      </c>
-      <c r="B401" t="s">
-        <v>406</v>
-      </c>
       <c r="C401" s="1" t="s">
-        <v>693</v>
+        <v>453</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>404</v>
+      </c>
+      <c r="B402" t="s">
         <v>405</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403" t="s">
+        <v>406</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
         <v>407</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="C404" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
-        <v>405</v>
-      </c>
-      <c r="B403" t="s">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
         <v>408</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="C405" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
-        <v>405</v>
-      </c>
-      <c r="B404" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>409</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>410</v>
+      </c>
+      <c r="B408" t="s">
+        <v>411</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C405" s="1"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>410</v>
-      </c>
-      <c r="C406" s="1"/>
-    </row>
-    <row r="407" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>411</v>
-      </c>
-      <c r="B407" t="s">
+    <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>412</v>
       </c>
-      <c r="C407" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>413</v>
-      </c>
-      <c r="B408" t="s">
+      <c r="B409" t="s">
         <v>6</v>
       </c>
-      <c r="C408" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>414</v>
-      </c>
-      <c r="B409" t="s">
-        <v>415</v>
-      </c>
       <c r="C409" s="1" t="s">
-        <v>698</v>
+        <v>453</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>413</v>
+      </c>
+      <c r="B410" t="s">
         <v>414</v>
       </c>
-      <c r="B410" t="s">
-        <v>416</v>
-      </c>
       <c r="C410" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B412" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B414" t="s">
+        <v>418</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>419</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
         <v>420</v>
       </c>
-      <c r="C414" s="1" t="s">
+      <c r="B417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>421</v>
+      </c>
+      <c r="B418" t="s">
+        <v>422</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C415" s="1"/>
-    </row>
-    <row r="416" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>421</v>
-      </c>
-      <c r="B416" t="s">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>423</v>
+      </c>
+      <c r="B419" t="s">
+        <v>424</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>425</v>
+      </c>
+      <c r="B420" t="s">
+        <v>365</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>426</v>
+      </c>
+      <c r="B422" t="s">
         <v>19</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="C422" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>422</v>
-      </c>
-      <c r="B417" t="s">
-        <v>423</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>424</v>
-      </c>
-      <c r="B418" t="s">
-        <v>425</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
-        <v>426</v>
-      </c>
-      <c r="B419" t="s">
-        <v>366</v>
-      </c>
-      <c r="C419" s="1" t="s">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>427</v>
+      </c>
+      <c r="B423" t="s">
+        <v>428</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C420" s="1"/>
-    </row>
-    <row r="421" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
-        <v>427</v>
-      </c>
-      <c r="B421" t="s">
-        <v>19</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
-        <v>428</v>
-      </c>
-      <c r="B422" t="s">
+    <row r="424" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
         <v>429</v>
       </c>
-      <c r="C422" s="1" t="s">
+      <c r="B424" t="s">
+        <v>430</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
-        <v>430</v>
-      </c>
-      <c r="B423" t="s">
-        <v>431</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
-        <v>432</v>
-      </c>
-      <c r="B424" t="s">
-        <v>25</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
+        <v>431</v>
+      </c>
+      <c r="B425" t="s">
+        <v>25</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>431</v>
+      </c>
+      <c r="B426" t="s">
         <v>432</v>
       </c>
-      <c r="B425" t="s">
-        <v>433</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>432</v>
-      </c>
-      <c r="B426" t="s">
-        <v>434</v>
-      </c>
       <c r="C426" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B427" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>538</v>
+        <v>709</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C428" s="1"/>
-    </row>
-    <row r="429" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>436</v>
-      </c>
-      <c r="B429" t="s">
-        <v>19</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A428" t="s">
+        <v>431</v>
+      </c>
+      <c r="B428" t="s">
+        <v>434</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C429" s="1"/>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B430" t="s">
-        <v>438</v>
+        <v>19</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>711</v>
+        <v>19</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B431" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>438</v>
+      </c>
+      <c r="B432" t="s">
         <v>439</v>
       </c>
-      <c r="B432" t="s">
-        <v>441</v>
-      </c>
       <c r="C432" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B433" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B434" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B437" t="s">
-        <v>55</v>
+        <v>444</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>478</v>
+        <v>716</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>446</v>
+        <v>55</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="B440" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C440" s="3" t="s">
-        <v>720</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>445</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
